--- a/PS-VRP/Dati_input/Estrazione commesse 2.xlsx
+++ b/PS-VRP/Dati_input/Estrazione commesse 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alecola\Desktop\Schedulatore_produzione\Dati_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frenc\Documents\GitHub\progettoIS\PS-VRP\Dati_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B7657-4306-4FF8-90C5-A28312B0F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0575F53-F7ED-412E-9D88-DE51EAA02148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -911,13 +911,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G73" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>233333</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>5.0887573964497044</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>243335</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>243569</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>244023</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>245623</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>245089</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>251109</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>250284</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>251346</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>250866</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>250899</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>251519</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>251550</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>250825</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>251308</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>250448</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>251567</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>245193</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>251590</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>251591</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>251334</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>251162</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>251053</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>251301</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>251300</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>251161</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>251158</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>251160</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>251043</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>251044</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>251140</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>251501</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>250591</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>245275</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>250946</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>251050</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>251297</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>251296</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>251295</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>250720</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>245348</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>251429</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>251430</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>251132</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>250449</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>251048</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>251310</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>251126</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>251128</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>251304</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>251168</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>251167</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>250994</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>250867</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>250875</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>251216</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>251392</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>251127</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>251182</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>251592</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>251593</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>251081</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>251099</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>250819</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>251247</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>251342</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>250984</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>244960</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>251072</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>251139</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>250991</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>250863</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>251393</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>251368</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>251371</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>251437</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>251189</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>251187</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>251183</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>251055</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>250913</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>251846</v>
       </c>
